--- a/src/main/resources/template/entertainSumTemplate.xlsx
+++ b/src/main/resources/template/entertainSumTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>{yearName} 招待费累计汇总表</t>
   </si>
@@ -52,9 +52,18 @@
     <t>宣传品费</t>
   </si>
   <si>
+    <t>合计</t>
+  </si>
+  <si>
     <t>报销动因</t>
   </si>
   <si>
+    <t>科目</t>
+  </si>
+  <si>
+    <t>划拨金额</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -115,7 +124,16 @@
     <t>{.xcpf}</t>
   </si>
   <si>
+    <t>{.totalSum}</t>
+  </si>
+  <si>
     <t>{.agentName}</t>
+  </si>
+  <si>
+    <t>{.subject}</t>
+  </si>
+  <si>
+    <t>{.allocatedmoney}</t>
   </si>
   <si>
     <t>{.remark}</t>
@@ -126,13 +144,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -173,6 +191,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="宋体"/>
@@ -181,7 +219,65 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -193,97 +289,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="16"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="19"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="19"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -294,13 +318,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,7 +372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,60 +384,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="48"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="54"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -385,12 +415,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="24"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,9 +480,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="48"/>
+      </top>
       <bottom style="double">
-        <color indexed="52"/>
+        <color indexed="48"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,22 +508,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="48"/>
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,7 +526,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="44"/>
+        <color indexed="48"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,13 +546,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
       <top style="thin">
-        <color indexed="48"/>
+        <color indexed="22"/>
       </top>
-      <bottom style="double">
-        <color indexed="48"/>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,10 +583,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,137 +595,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,6 +765,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1066,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
@@ -1078,9 +1108,7 @@
     <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="15" width="9.00833333333333" customWidth="1"/>
-    <col min="16" max="16" width="14.375" customWidth="1"/>
-    <col min="17" max="17" width="24.75" customWidth="1"/>
-    <col min="18" max="18" width="8" customWidth="1"/>
+    <col min="16" max="19" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1" spans="1:17">
@@ -1127,7 +1155,7 @@
       </c>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" ht="24" customHeight="1" spans="1:17">
+    <row r="3" ht="24" customHeight="1" spans="1:20">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>3</v>
@@ -1167,8 +1195,17 @@
       <c r="Q3" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="R3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" ht="24" customHeight="1" spans="1:17">
+    <row r="4" ht="24" customHeight="1" spans="1:20">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1176,84 +1213,96 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="6"/>
     </row>
-    <row r="5" ht="30.75" customHeight="1" spans="1:17">
+    <row r="5" ht="30.75" customHeight="1" spans="1:20">
       <c r="A5" s="1"/>
       <c r="B5" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
     <mergeCell ref="B1:P1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G3:I3"/>
@@ -1267,6 +1316,9 @@
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/src/main/resources/template/entertainSumTemplate.xlsx
+++ b/src/main/resources/template/entertainSumTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="11310"/>
+    <workbookView windowWidth="28740" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="招待汇总表" sheetId="1" r:id="rId1"/>
@@ -52,21 +52,21 @@
     <t>宣传品费</t>
   </si>
   <si>
+    <t>报销动因</t>
+  </si>
+  <si>
+    <t>科目</t>
+  </si>
+  <si>
+    <t>划拨金额</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>合计</t>
   </si>
   <si>
-    <t>报销动因</t>
-  </si>
-  <si>
-    <t>科目</t>
-  </si>
-  <si>
-    <t>划拨金额</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
     <t>人数</t>
   </si>
   <si>
@@ -124,19 +124,19 @@
     <t>{.xcpf}</t>
   </si>
   <si>
+    <t>{.agentName}</t>
+  </si>
+  <si>
+    <t>{.subject}</t>
+  </si>
+  <si>
+    <t>{.allocatedmoney}</t>
+  </si>
+  <si>
+    <t>{.remark}</t>
+  </si>
+  <si>
     <t>{.totalSum}</t>
-  </si>
-  <si>
-    <t>{.agentName}</t>
-  </si>
-  <si>
-    <t>{.subject}</t>
-  </si>
-  <si>
-    <t>{.allocatedmoney}</t>
-  </si>
-  <si>
-    <t>{.remark}</t>
   </si>
 </sst>
 </file>
@@ -144,11 +144,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -197,35 +197,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="16"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
+      <sz val="11"/>
+      <color indexed="19"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -237,6 +210,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
@@ -249,9 +255,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -262,22 +275,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -290,21 +303,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="19"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
+      <sz val="11"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -318,13 +318,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,85 +348,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="48"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="54"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="24"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,10 +480,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="48"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color indexed="48"/>
       </bottom>
       <diagonal/>
@@ -504,11 +502,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,11 +526,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="48"/>
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,32 +565,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
+        <color indexed="48"/>
       </top>
       <bottom style="double">
-        <color indexed="63"/>
+        <color indexed="48"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,7 +586,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,133 +595,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
@@ -1108,10 +1108,10 @@
     <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="15" width="9.00833333333333" customWidth="1"/>
-    <col min="16" max="19" width="12.625" customWidth="1"/>
+    <col min="16" max="18" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1" spans="1:17">
+    <row r="1" ht="20.25" customHeight="1" spans="1:16">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1129,10 +1129,9 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="1"/>
+      <c r="P1" s="1"/>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:17">
+    <row r="2" ht="18.75" customHeight="1" spans="1:20">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -1149,11 +1148,10 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="1"/>
+      <c r="T2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="1"/>
     </row>
     <row r="3" ht="24" customHeight="1" spans="1:20">
       <c r="A3" s="1"/>
@@ -1192,13 +1190,13 @@
       <c r="P3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="R3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="T3" s="6" t="s">
@@ -1236,9 +1234,9 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
+      <c r="S4" s="6"/>
       <c r="T4" s="6"/>
     </row>
     <row r="5" ht="30.75" customHeight="1" spans="1:20">
@@ -1288,10 +1286,10 @@
       <c r="P5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="11" t="s">
         <v>38</v>
       </c>
       <c r="S5" s="11" t="s">
@@ -1303,7 +1301,7 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:M3"/>
